--- a/data/trans_orig/P04A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E1ED87F-BC9E-4A8A-B1B8-3B4EAD879886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6292BF8C-C25D-4257-8AA7-DF4D9746C940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{35AF804C-2FA8-4D3F-A0C4-F5C1FC81F094}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D65ECCD9-AED1-49E0-88EC-097B89D3E50B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="446">
-  <si>
-    <t>Población según si lavivienda que ocupan es de propiedad o de alquiler en 2023 (Tasa respuesta: 99,63%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="462">
+  <si>
+    <t>Población según si la vivienda que ocupan es de propiedad o de alquiler en 2023 (Tasa respuesta: 99,63%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,1294 +83,1342 @@
     <t>0,06%</t>
   </si>
   <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>En cesión (gratuita o bajo precio)</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>En alquiler</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>En propiedad, por herencia o donación</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>En propiedad, con hipoteca</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>En propiedad, totalmente pagada</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>En cesión (gratuita o bajo precio)</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>En alquiler</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>En propiedad, por herencia o donación</t>
-  </si>
-  <si>
-    <t>7,95%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>En propiedad, con hipoteca</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>En propiedad, totalmente pagada</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>25,06%</t>
   </si>
   <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
     <t>23,97%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
   </si>
   <si>
     <t>57,67%</t>
   </si>
   <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
   </si>
   <si>
     <t>60,11%</t>
   </si>
   <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
   </si>
   <si>
     <t>58,97%</t>
   </si>
   <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1785,7 +1833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5736C753-2445-4231-A158-32085F55268B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9B48E1-184C-42D5-B053-F43C02F9B701}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2274,7 +2322,7 @@
         <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -2283,13 +2331,13 @@
         <v>6469</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -2298,13 +2346,13 @@
         <v>17381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,13 +2367,13 @@
         <v>6136</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -2334,13 +2382,13 @@
         <v>5657</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -2349,13 +2397,13 @@
         <v>11793</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,13 +2418,13 @@
         <v>55778</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -2385,13 +2433,13 @@
         <v>50354</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -2400,13 +2448,13 @@
         <v>106132</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,13 +2469,13 @@
         <v>47606</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -2436,13 +2484,13 @@
         <v>50487</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>89</v>
@@ -2451,13 +2499,13 @@
         <v>98093</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,13 +2520,13 @@
         <v>171631</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H15" s="7">
         <v>204</v>
@@ -2487,13 +2535,13 @@
         <v>175202</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M15" s="7">
         <v>311</v>
@@ -2502,13 +2550,13 @@
         <v>346833</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,13 +2571,13 @@
         <v>225799</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H16" s="7">
         <v>368</v>
@@ -2538,13 +2586,13 @@
         <v>264993</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M16" s="7">
         <v>556</v>
@@ -2553,13 +2601,13 @@
         <v>490792</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,7 +2663,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2627,13 +2675,13 @@
         <v>1701</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2642,13 +2690,13 @@
         <v>751</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -2657,13 +2705,13 @@
         <v>2453</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2726,13 @@
         <v>5512</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -2693,13 +2741,13 @@
         <v>11953</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -2708,13 +2756,13 @@
         <v>17465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2777,13 @@
         <v>41151</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>64</v>
@@ -2744,13 +2792,13 @@
         <v>51240</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -2759,13 +2807,13 @@
         <v>92391</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2828,13 @@
         <v>30116</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H21" s="7">
         <v>39</v>
@@ -2795,13 +2843,13 @@
         <v>25776</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M21" s="7">
         <v>71</v>
@@ -2810,13 +2858,13 @@
         <v>55892</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,13 +2879,13 @@
         <v>79005</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H22" s="7">
         <v>144</v>
@@ -2846,13 +2894,13 @@
         <v>111105</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M22" s="7">
         <v>221</v>
@@ -2861,13 +2909,13 @@
         <v>190111</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2930,13 @@
         <v>164755</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H23" s="7">
         <v>270</v>
@@ -2897,13 +2945,13 @@
         <v>171095</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M23" s="7">
         <v>466</v>
@@ -2912,13 +2960,13 @@
         <v>335851</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,7 +3022,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2986,13 +3034,13 @@
         <v>11808</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3001,13 +3049,13 @@
         <v>10571</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -3016,13 +3064,13 @@
         <v>22379</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3085,13 @@
         <v>607</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3052,13 +3100,13 @@
         <v>4092</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -3067,13 +3115,13 @@
         <v>4700</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3136,13 @@
         <v>39957</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H27" s="7">
         <v>63</v>
@@ -3103,13 +3151,13 @@
         <v>61943</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M27" s="7">
         <v>100</v>
@@ -3118,13 +3166,13 @@
         <v>101900</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3187,13 @@
         <v>9096</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -3154,13 +3202,13 @@
         <v>10912</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -3169,13 +3217,13 @@
         <v>20008</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,13 +3238,13 @@
         <v>83527</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H29" s="7">
         <v>111</v>
@@ -3205,13 +3253,13 @@
         <v>96950</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M29" s="7">
         <v>163</v>
@@ -3220,13 +3268,13 @@
         <v>180477</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3289,13 @@
         <v>168034</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H30" s="7">
         <v>394</v>
@@ -3256,13 +3304,13 @@
         <v>243929</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M30" s="7">
         <v>575</v>
@@ -3271,13 +3319,13 @@
         <v>411963</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,7 +3381,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3345,13 +3393,13 @@
         <v>907</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -3360,13 +3408,13 @@
         <v>1337</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>84</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -3375,13 +3423,13 @@
         <v>2244</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3444,13 @@
         <v>1370</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -3411,13 +3459,13 @@
         <v>560</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -3426,13 +3474,13 @@
         <v>1930</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>235</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3495,13 @@
         <v>7949</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>27</v>
@@ -3462,13 +3510,13 @@
         <v>36636</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>44</v>
@@ -3477,13 +3525,13 @@
         <v>44585</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3546,13 @@
         <v>1961</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -3513,13 +3561,13 @@
         <v>2786</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M35" s="7">
         <v>6</v>
@@ -3528,13 +3576,13 @@
         <v>4747</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3597,13 @@
         <v>15103</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -3564,13 +3612,13 @@
         <v>8249</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M36" s="7">
         <v>31</v>
@@ -3579,13 +3627,13 @@
         <v>23351</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3648,13 @@
         <v>168727</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H37" s="7">
         <v>444</v>
@@ -3615,13 +3663,13 @@
         <v>209492</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M37" s="7">
         <v>679</v>
@@ -3630,13 +3678,13 @@
         <v>378219</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,7 +3740,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3704,13 +3752,13 @@
         <v>1071</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3725,7 +3773,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -3734,13 +3782,13 @@
         <v>1071</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,13 +3803,13 @@
         <v>15151</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H40" s="7">
         <v>17</v>
@@ -3770,13 +3818,13 @@
         <v>12029</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M40" s="7">
         <v>35</v>
@@ -3785,13 +3833,13 @@
         <v>27180</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3854,13 @@
         <v>22686</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H41" s="7">
         <v>33</v>
@@ -3821,13 +3869,13 @@
         <v>22363</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M41" s="7">
         <v>66</v>
@@ -3839,10 +3887,10 @@
         <v>27</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3905,13 @@
         <v>20268</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H42" s="7">
         <v>12</v>
@@ -3872,13 +3920,13 @@
         <v>8708</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>131</v>
+        <v>297</v>
       </c>
       <c r="M42" s="7">
         <v>33</v>
@@ -3887,13 +3935,13 @@
         <v>28976</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3956,13 @@
         <v>56039</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H43" s="7">
         <v>64</v>
@@ -3923,13 +3971,13 @@
         <v>50467</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M43" s="7">
         <v>124</v>
@@ -3938,13 +3986,13 @@
         <v>106506</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +4007,13 @@
         <v>162009</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H44" s="7">
         <v>334</v>
@@ -3974,13 +4022,13 @@
         <v>182055</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M44" s="7">
         <v>572</v>
@@ -3989,13 +4037,13 @@
         <v>344064</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,7 +4099,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4063,13 +4111,13 @@
         <v>4881</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>315</v>
+        <v>69</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
@@ -4078,13 +4126,13 @@
         <v>5472</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>13</v>
@@ -4093,13 +4141,13 @@
         <v>10353</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>255</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4162,13 @@
         <v>7476</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H47" s="7">
         <v>10</v>
@@ -4129,13 +4177,13 @@
         <v>7641</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M47" s="7">
         <v>18</v>
@@ -4144,13 +4192,13 @@
         <v>15117</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>125</v>
+        <v>332</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4213,13 @@
         <v>69655</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H48" s="7">
         <v>137</v>
@@ -4180,13 +4228,13 @@
         <v>82106</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="M48" s="7">
         <v>221</v>
@@ -4195,13 +4243,13 @@
         <v>151761</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>139</v>
+        <v>341</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4264,13 @@
         <v>18731</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>337</v>
+        <v>190</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="H49" s="7">
         <v>18</v>
@@ -4231,13 +4279,13 @@
         <v>12950</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>200</v>
+        <v>345</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="M49" s="7">
         <v>33</v>
@@ -4246,13 +4294,13 @@
         <v>31681</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4315,13 @@
         <v>144610</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H50" s="7">
         <v>209</v>
@@ -4282,13 +4330,13 @@
         <v>161743</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="M50" s="7">
         <v>333</v>
@@ -4297,13 +4345,13 @@
         <v>306352</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4366,13 @@
         <v>372994</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H51" s="7">
         <v>565</v>
@@ -4333,13 +4381,13 @@
         <v>524622</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="M51" s="7">
         <v>924</v>
@@ -4348,13 +4396,13 @@
         <v>897615</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,7 +4458,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4422,13 +4470,13 @@
         <v>1394</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>224</v>
+        <v>370</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="H53" s="7">
         <v>2</v>
@@ -4437,13 +4485,13 @@
         <v>745</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>270</v>
+        <v>373</v>
       </c>
       <c r="M53" s="7">
         <v>3</v>
@@ -4452,13 +4500,13 @@
         <v>2139</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>366</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4521,13 @@
         <v>19305</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H54" s="7">
         <v>14</v>
@@ -4488,13 +4536,13 @@
         <v>11567</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M54" s="7">
         <v>31</v>
@@ -4503,13 +4551,13 @@
         <v>30872</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4572,13 @@
         <v>84844</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>188</v>
+        <v>382</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="H55" s="7">
         <v>87</v>
@@ -4539,13 +4587,13 @@
         <v>80966</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>378</v>
+        <v>287</v>
       </c>
       <c r="M55" s="7">
         <v>172</v>
@@ -4554,13 +4602,13 @@
         <v>165810</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4623,13 @@
         <v>17402</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>323</v>
+        <v>391</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="H56" s="7">
         <v>15</v>
@@ -4593,10 +4641,10 @@
         <v>19</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>229</v>
+        <v>393</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="M56" s="7">
         <v>34</v>
@@ -4605,13 +4653,13 @@
         <v>27798</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>386</v>
+        <v>185</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4674,13 @@
         <v>169972</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="H57" s="7">
         <v>225</v>
@@ -4641,13 +4689,13 @@
         <v>196050</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="M57" s="7">
         <v>364</v>
@@ -4656,13 +4704,13 @@
         <v>366023</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4725,13 @@
         <v>564559</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="H58" s="7">
         <v>717</v>
@@ -4692,13 +4740,13 @@
         <v>567074</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="M58" s="7">
         <v>1217</v>
@@ -4707,13 +4755,13 @@
         <v>1131633</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4829,13 @@
         <v>32675</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>407</v>
+        <v>13</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>408</v>
+        <v>182</v>
       </c>
       <c r="H60" s="7">
         <v>36</v>
@@ -4796,13 +4844,13 @@
         <v>25504</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>125</v>
+        <v>418</v>
       </c>
       <c r="M60" s="7">
         <v>59</v>
@@ -4814,10 +4862,10 @@
         <v>23</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>13</v>
+        <v>419</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,13 +4880,13 @@
         <v>58672</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="H61" s="7">
         <v>72</v>
@@ -4847,13 +4895,13 @@
         <v>54670</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>412</v>
+        <v>324</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>235</v>
+        <v>423</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>337</v>
+        <v>190</v>
       </c>
       <c r="M61" s="7">
         <v>132</v>
@@ -4862,13 +4910,13 @@
         <v>113342</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4931,13 @@
         <v>343232</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="H62" s="7">
         <v>518</v>
@@ -4898,13 +4946,13 @@
         <v>403307</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="M62" s="7">
         <v>919</v>
@@ -4916,10 +4964,10 @@
         <v>42</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>172</v>
+        <v>433</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4982,13 @@
         <v>165861</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>38</v>
+        <v>435</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>422</v>
+        <v>31</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="H63" s="7">
         <v>193</v>
@@ -4949,13 +4997,13 @@
         <v>141834</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>240</v>
+        <v>437</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>291</v>
+        <v>438</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="M63" s="7">
         <v>340</v>
@@ -4964,13 +5012,13 @@
         <v>307696</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +5033,13 @@
         <v>822934</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>304</v>
+        <v>444</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="H64" s="7">
         <v>1166</v>
@@ -5000,13 +5048,13 @@
         <v>898942</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="M64" s="7">
         <v>1855</v>
@@ -5015,13 +5063,13 @@
         <v>1721876</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,16 +5081,16 @@
         <v>2044</v>
       </c>
       <c r="D65" s="7">
-        <v>1939116</v>
+        <v>1939117</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="H65" s="7">
         <v>3362</v>
@@ -5051,13 +5099,13 @@
         <v>2296641</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="M65" s="7">
         <v>5406</v>
@@ -5066,13 +5114,13 @@
         <v>4235757</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,7 +5132,7 @@
         <v>3364</v>
       </c>
       <c r="D66" s="7">
-        <v>3362491</v>
+        <v>3362492</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>66</v>
@@ -5128,7 +5176,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04A_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6292BF8C-C25D-4257-8AA7-DF4D9746C940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28314F1A-0D93-4654-B8DF-8295F8278B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D65ECCD9-AED1-49E0-88EC-097B89D3E50B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D9753A81-15D5-45E1-96B0-4AEFF0E8B26D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="446">
   <si>
     <t>Población según si la vivienda que ocupan es de propiedad o de alquiler en 2023 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -83,1342 +83,1294 @@
     <t>0,06%</t>
   </si>
   <si>
-    <t>0,45%</t>
+    <t>0,44%</t>
   </si>
   <si>
     <t>0,03%</t>
   </si>
   <si>
-    <t>0,15%</t>
+    <t>0,14%</t>
   </si>
   <si>
     <t>En cesión (gratuita o bajo precio)</t>
   </si>
   <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>En alquiler</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>En propiedad, por herencia o donación</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>En propiedad, con hipoteca</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>En propiedad, totalmente pagada</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>En alquiler</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>En propiedad, por herencia o donación</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>En propiedad, con hipoteca</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>En propiedad, totalmente pagada</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
   </si>
   <si>
     <t>9,13%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
   </si>
   <si>
     <t>59,39%</t>
   </si>
   <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1833,7 +1785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9B48E1-184C-42D5-B053-F43C02F9B701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3690D223-6111-448A-9D5F-EE1D04F5091D}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1969,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1984,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -2005,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>3116</v>
+        <v>3852</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -2020,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>1170</v>
+        <v>1214</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
@@ -2035,7 +1987,7 @@
         <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>4286</v>
+        <v>5066</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
@@ -2056,7 +2008,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>21214</v>
+        <v>24718</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -2071,7 +2023,7 @@
         <v>37</v>
       </c>
       <c r="I6" s="7">
-        <v>17698</v>
+        <v>21232</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2086,7 +2038,7 @@
         <v>87</v>
       </c>
       <c r="N6" s="7">
-        <v>38912</v>
+        <v>45949</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>33</v>
@@ -2107,7 +2059,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>20682</v>
+        <v>27025</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>37</v>
@@ -2122,7 +2074,7 @@
         <v>32</v>
       </c>
       <c r="I7" s="7">
-        <v>19819</v>
+        <v>21611</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2137,7 +2089,7 @@
         <v>51</v>
       </c>
       <c r="N7" s="7">
-        <v>40501</v>
+        <v>48636</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>43</v>
@@ -2158,7 +2110,7 @@
         <v>113</v>
       </c>
       <c r="D8" s="7">
-        <v>103047</v>
+        <v>124727</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>47</v>
@@ -2173,7 +2125,7 @@
         <v>195</v>
       </c>
       <c r="I8" s="7">
-        <v>99176</v>
+        <v>105669</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -2188,7 +2140,7 @@
         <v>308</v>
       </c>
       <c r="N8" s="7">
-        <v>202223</v>
+        <v>230396</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>53</v>
@@ -2209,7 +2161,7 @@
         <v>147</v>
       </c>
       <c r="D9" s="7">
-        <v>112240</v>
+        <v>131121</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>57</v>
@@ -2224,7 +2176,7 @@
         <v>270</v>
       </c>
       <c r="I9" s="7">
-        <v>133380</v>
+        <v>139742</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -2239,7 +2191,7 @@
         <v>417</v>
       </c>
       <c r="N9" s="7">
-        <v>245620</v>
+        <v>270863</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>63</v>
@@ -2260,7 +2212,7 @@
         <v>331</v>
       </c>
       <c r="D10" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>66</v>
@@ -2275,7 +2227,7 @@
         <v>538</v>
       </c>
       <c r="I10" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>66</v>
@@ -2290,7 +2242,7 @@
         <v>869</v>
       </c>
       <c r="N10" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2313,7 +2265,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>10912</v>
+        <v>11299</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>68</v>
@@ -2328,7 +2280,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>6469</v>
+        <v>5890</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>71</v>
@@ -2343,7 +2295,7 @@
         <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>17381</v>
+        <v>17189</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>74</v>
@@ -2364,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>6136</v>
+        <v>6295</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>77</v>
@@ -2379,7 +2331,7 @@
         <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>5657</v>
+        <v>5296</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>80</v>
@@ -2388,22 +2340,22 @@
         <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>11793</v>
+        <v>11591</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,46 +2367,46 @@
         <v>48</v>
       </c>
       <c r="D13" s="7">
-        <v>55778</v>
+        <v>55995</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
       </c>
       <c r="I13" s="7">
-        <v>50354</v>
+        <v>46988</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
       </c>
       <c r="N13" s="7">
-        <v>106132</v>
+        <v>102983</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,46 +2418,46 @@
         <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>47606</v>
+        <v>48950</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>50487</v>
+        <v>47109</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>89</v>
       </c>
       <c r="N14" s="7">
-        <v>98093</v>
+        <v>96059</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,46 +2469,46 @@
         <v>107</v>
       </c>
       <c r="D15" s="7">
-        <v>171631</v>
+        <v>175565</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H15" s="7">
         <v>204</v>
       </c>
       <c r="I15" s="7">
-        <v>175202</v>
+        <v>163399</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M15" s="7">
         <v>311</v>
       </c>
       <c r="N15" s="7">
-        <v>346833</v>
+        <v>338964</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,46 +2520,46 @@
         <v>188</v>
       </c>
       <c r="D16" s="7">
-        <v>225799</v>
+        <v>218896</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H16" s="7">
         <v>368</v>
       </c>
       <c r="I16" s="7">
-        <v>264993</v>
+        <v>244996</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M16" s="7">
         <v>556</v>
       </c>
       <c r="N16" s="7">
-        <v>490792</v>
+        <v>463892</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,7 +2571,7 @@
         <v>381</v>
       </c>
       <c r="D17" s="7">
-        <v>517862</v>
+        <v>517001</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>66</v>
@@ -2634,7 +2586,7 @@
         <v>715</v>
       </c>
       <c r="I17" s="7">
-        <v>553162</v>
+        <v>513677</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>66</v>
@@ -2649,7 +2601,7 @@
         <v>1096</v>
       </c>
       <c r="N17" s="7">
-        <v>1071024</v>
+        <v>1030678</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>66</v>
@@ -2663,7 +2615,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2672,46 +2624,46 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>1701</v>
+        <v>1632</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>751</v>
+        <v>694</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
       </c>
       <c r="N18" s="7">
-        <v>2453</v>
+        <v>2326</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,28 +2675,28 @@
         <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>5512</v>
+        <v>5434</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>11953</v>
+        <v>11177</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>134</v>
@@ -2753,7 +2705,7 @@
         <v>22</v>
       </c>
       <c r="N19" s="7">
-        <v>17465</v>
+        <v>16611</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>135</v>
@@ -2774,7 +2726,7 @@
         <v>47</v>
       </c>
       <c r="D20" s="7">
-        <v>41151</v>
+        <v>40589</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>138</v>
@@ -2789,7 +2741,7 @@
         <v>64</v>
       </c>
       <c r="I20" s="7">
-        <v>51240</v>
+        <v>48062</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>141</v>
@@ -2804,7 +2756,7 @@
         <v>111</v>
       </c>
       <c r="N20" s="7">
-        <v>92391</v>
+        <v>88652</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>144</v>
@@ -2825,46 +2777,46 @@
         <v>32</v>
       </c>
       <c r="D21" s="7">
-        <v>30116</v>
+        <v>29494</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H21" s="7">
         <v>39</v>
       </c>
       <c r="I21" s="7">
-        <v>25776</v>
+        <v>24186</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M21" s="7">
         <v>71</v>
       </c>
       <c r="N21" s="7">
-        <v>55892</v>
+        <v>53680</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,46 +2828,46 @@
         <v>77</v>
       </c>
       <c r="D22" s="7">
-        <v>79005</v>
+        <v>78164</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H22" s="7">
         <v>144</v>
       </c>
       <c r="I22" s="7">
-        <v>111105</v>
+        <v>104893</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M22" s="7">
         <v>221</v>
       </c>
       <c r="N22" s="7">
-        <v>190111</v>
+        <v>183057</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,46 +2879,46 @@
         <v>196</v>
       </c>
       <c r="D23" s="7">
-        <v>164755</v>
+        <v>160736</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H23" s="7">
         <v>270</v>
       </c>
       <c r="I23" s="7">
-        <v>171095</v>
+        <v>158851</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M23" s="7">
         <v>466</v>
       </c>
       <c r="N23" s="7">
-        <v>335851</v>
+        <v>319588</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,7 +2930,7 @@
         <v>360</v>
       </c>
       <c r="D24" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>66</v>
@@ -2993,7 +2945,7 @@
         <v>534</v>
       </c>
       <c r="I24" s="7">
-        <v>371921</v>
+        <v>347863</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>66</v>
@@ -3008,7 +2960,7 @@
         <v>894</v>
       </c>
       <c r="N24" s="7">
-        <v>694162</v>
+        <v>663914</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>66</v>
@@ -3022,7 +2974,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3031,46 +2983,46 @@
         <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>11808</v>
+        <v>10834</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
       </c>
       <c r="I25" s="7">
-        <v>10571</v>
+        <v>9834</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
       </c>
       <c r="N25" s="7">
-        <v>22379</v>
+        <v>20668</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,46 +3034,46 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>4092</v>
+        <v>3995</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>4700</v>
+        <v>4578</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,46 +3085,46 @@
         <v>37</v>
       </c>
       <c r="D27" s="7">
-        <v>39957</v>
+        <v>40137</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>63</v>
       </c>
       <c r="I27" s="7">
-        <v>61943</v>
+        <v>112449</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>100</v>
       </c>
       <c r="N27" s="7">
-        <v>101900</v>
+        <v>152586</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,46 +3136,46 @@
         <v>10</v>
       </c>
       <c r="D28" s="7">
-        <v>9096</v>
+        <v>8925</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
       </c>
       <c r="I28" s="7">
-        <v>10912</v>
+        <v>10148</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
       </c>
       <c r="N28" s="7">
-        <v>20008</v>
+        <v>19073</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,46 +3187,46 @@
         <v>52</v>
       </c>
       <c r="D29" s="7">
-        <v>83527</v>
+        <v>79850</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>111</v>
       </c>
       <c r="I29" s="7">
-        <v>96950</v>
+        <v>89296</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>163</v>
       </c>
       <c r="N29" s="7">
-        <v>180477</v>
+        <v>169146</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,46 +3238,46 @@
         <v>181</v>
       </c>
       <c r="D30" s="7">
-        <v>168034</v>
+        <v>160487</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>394</v>
       </c>
       <c r="I30" s="7">
-        <v>243929</v>
+        <v>249836</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>575</v>
       </c>
       <c r="N30" s="7">
-        <v>411963</v>
+        <v>410322</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,7 +3289,7 @@
         <v>288</v>
       </c>
       <c r="D31" s="7">
-        <v>313030</v>
+        <v>300816</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>66</v>
@@ -3352,7 +3304,7 @@
         <v>598</v>
       </c>
       <c r="I31" s="7">
-        <v>428397</v>
+        <v>475557</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>66</v>
@@ -3367,7 +3319,7 @@
         <v>886</v>
       </c>
       <c r="N31" s="7">
-        <v>741427</v>
+        <v>776372</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>66</v>
@@ -3381,7 +3333,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3390,46 +3342,46 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>907</v>
+        <v>836</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>1337</v>
+        <v>1220</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
       </c>
       <c r="N32" s="7">
-        <v>2244</v>
+        <v>2056</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,46 +3393,46 @@
         <v>5</v>
       </c>
       <c r="D33" s="7">
-        <v>1370</v>
+        <v>1317</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
       </c>
       <c r="I33" s="7">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
       </c>
       <c r="N33" s="7">
-        <v>1930</v>
+        <v>1839</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,46 +3444,46 @@
         <v>17</v>
       </c>
       <c r="D34" s="7">
-        <v>7949</v>
+        <v>7304</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>27</v>
       </c>
       <c r="I34" s="7">
-        <v>36636</v>
+        <v>58534</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>44</v>
       </c>
       <c r="N34" s="7">
-        <v>44585</v>
+        <v>65838</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,46 +3495,46 @@
         <v>2</v>
       </c>
       <c r="D35" s="7">
-        <v>1961</v>
+        <v>1763</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
       </c>
       <c r="I35" s="7">
-        <v>2786</v>
+        <v>2432</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>6</v>
       </c>
       <c r="N35" s="7">
-        <v>4747</v>
+        <v>4194</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,46 +3546,46 @@
         <v>17</v>
       </c>
       <c r="D36" s="7">
-        <v>15103</v>
+        <v>13622</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
       </c>
       <c r="I36" s="7">
-        <v>8249</v>
+        <v>7375</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>31</v>
       </c>
       <c r="N36" s="7">
-        <v>23351</v>
+        <v>20997</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,46 +3597,46 @@
         <v>235</v>
       </c>
       <c r="D37" s="7">
-        <v>168727</v>
+        <v>153227</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>444</v>
       </c>
       <c r="I37" s="7">
-        <v>209492</v>
+        <v>188284</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>679</v>
       </c>
       <c r="N37" s="7">
-        <v>378219</v>
+        <v>341512</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,7 +3648,7 @@
         <v>278</v>
       </c>
       <c r="D38" s="7">
-        <v>196016</v>
+        <v>178069</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>66</v>
@@ -3711,7 +3663,7 @@
         <v>494</v>
       </c>
       <c r="I38" s="7">
-        <v>259061</v>
+        <v>258367</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>66</v>
@@ -3726,7 +3678,7 @@
         <v>772</v>
       </c>
       <c r="N38" s="7">
-        <v>455077</v>
+        <v>436436</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>66</v>
@@ -3740,7 +3692,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3749,16 +3701,16 @@
         <v>1</v>
       </c>
       <c r="D39" s="7">
-        <v>1071</v>
+        <v>1047</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>274</v>
+        <v>72</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3773,22 +3725,22 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
       </c>
       <c r="N39" s="7">
-        <v>1071</v>
+        <v>1047</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,46 +3752,46 @@
         <v>18</v>
       </c>
       <c r="D40" s="7">
-        <v>15151</v>
+        <v>14800</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H40" s="7">
         <v>17</v>
       </c>
       <c r="I40" s="7">
-        <v>12029</v>
+        <v>11306</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M40" s="7">
         <v>35</v>
       </c>
       <c r="N40" s="7">
-        <v>27180</v>
+        <v>26106</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,46 +3803,46 @@
         <v>33</v>
       </c>
       <c r="D41" s="7">
-        <v>22686</v>
+        <v>22054</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H41" s="7">
         <v>33</v>
       </c>
       <c r="I41" s="7">
-        <v>22363</v>
+        <v>20896</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>134</v>
+        <v>281</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="M41" s="7">
         <v>66</v>
       </c>
       <c r="N41" s="7">
-        <v>45049</v>
+        <v>42950</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,46 +3854,46 @@
         <v>21</v>
       </c>
       <c r="D42" s="7">
-        <v>20268</v>
+        <v>20231</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H42" s="7">
         <v>12</v>
       </c>
       <c r="I42" s="7">
-        <v>8708</v>
+        <v>8228</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M42" s="7">
         <v>33</v>
       </c>
       <c r="N42" s="7">
-        <v>28976</v>
+        <v>28458</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,46 +3905,46 @@
         <v>60</v>
       </c>
       <c r="D43" s="7">
-        <v>56039</v>
+        <v>54718</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H43" s="7">
         <v>64</v>
       </c>
       <c r="I43" s="7">
-        <v>50467</v>
+        <v>47166</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="M43" s="7">
         <v>124</v>
       </c>
       <c r="N43" s="7">
-        <v>106506</v>
+        <v>101884</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,46 +3956,46 @@
         <v>238</v>
       </c>
       <c r="D44" s="7">
-        <v>162009</v>
+        <v>156787</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H44" s="7">
         <v>334</v>
       </c>
       <c r="I44" s="7">
-        <v>182055</v>
+        <v>169460</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="M44" s="7">
         <v>572</v>
       </c>
       <c r="N44" s="7">
-        <v>344064</v>
+        <v>326246</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,7 +4007,7 @@
         <v>371</v>
       </c>
       <c r="D45" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>66</v>
@@ -4070,7 +4022,7 @@
         <v>460</v>
       </c>
       <c r="I45" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>66</v>
@@ -4085,7 +4037,7 @@
         <v>831</v>
       </c>
       <c r="N45" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>66</v>
@@ -4099,7 +4051,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4108,46 +4060,46 @@
         <v>4</v>
       </c>
       <c r="D46" s="7">
-        <v>4881</v>
+        <v>5275</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>69</v>
+        <v>311</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
       </c>
       <c r="I46" s="7">
-        <v>5472</v>
+        <v>4928</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>322</v>
+        <v>183</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>323</v>
+        <v>24</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="M46" s="7">
         <v>13</v>
       </c>
       <c r="N46" s="7">
-        <v>10353</v>
+        <v>10203</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,46 +4111,46 @@
         <v>8</v>
       </c>
       <c r="D47" s="7">
-        <v>7476</v>
+        <v>7186</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H47" s="7">
         <v>10</v>
       </c>
       <c r="I47" s="7">
-        <v>7641</v>
+        <v>7132</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>186</v>
+        <v>320</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>21</v>
+        <v>321</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="M47" s="7">
         <v>18</v>
       </c>
       <c r="N47" s="7">
-        <v>15117</v>
+        <v>14319</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,46 +4162,46 @@
         <v>84</v>
       </c>
       <c r="D48" s="7">
-        <v>69655</v>
+        <v>74643</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H48" s="7">
         <v>137</v>
       </c>
       <c r="I48" s="7">
-        <v>82106</v>
+        <v>77301</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>340</v>
+        <v>32</v>
       </c>
       <c r="M48" s="7">
         <v>221</v>
       </c>
       <c r="N48" s="7">
-        <v>151761</v>
+        <v>151944</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,46 +4213,46 @@
         <v>15</v>
       </c>
       <c r="D49" s="7">
-        <v>18731</v>
+        <v>18816</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>190</v>
+        <v>317</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>261</v>
+        <v>334</v>
       </c>
       <c r="H49" s="7">
         <v>18</v>
       </c>
       <c r="I49" s="7">
-        <v>12950</v>
+        <v>12457</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="M49" s="7">
         <v>33</v>
       </c>
       <c r="N49" s="7">
-        <v>31681</v>
+        <v>31273</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,46 +4264,46 @@
         <v>124</v>
       </c>
       <c r="D50" s="7">
-        <v>144610</v>
+        <v>141438</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="H50" s="7">
         <v>209</v>
       </c>
       <c r="I50" s="7">
-        <v>161743</v>
+        <v>150483</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="M50" s="7">
         <v>333</v>
       </c>
       <c r="N50" s="7">
-        <v>306352</v>
+        <v>291921</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,46 +4315,46 @@
         <v>359</v>
       </c>
       <c r="D51" s="7">
-        <v>372994</v>
+        <v>367451</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="H51" s="7">
         <v>565</v>
       </c>
       <c r="I51" s="7">
-        <v>524622</v>
+        <v>587916</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="M51" s="7">
         <v>924</v>
       </c>
       <c r="N51" s="7">
-        <v>897615</v>
+        <v>955366</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,7 +4366,7 @@
         <v>594</v>
       </c>
       <c r="D52" s="7">
-        <v>618347</v>
+        <v>614809</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>66</v>
@@ -4429,7 +4381,7 @@
         <v>948</v>
       </c>
       <c r="I52" s="7">
-        <v>794534</v>
+        <v>840218</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>66</v>
@@ -4444,7 +4396,7 @@
         <v>1542</v>
       </c>
       <c r="N52" s="7">
-        <v>1412880</v>
+        <v>1455027</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>66</v>
@@ -4458,7 +4410,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4467,46 +4419,46 @@
         <v>1</v>
       </c>
       <c r="D53" s="7">
-        <v>1394</v>
+        <v>1197</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H53" s="7">
         <v>2</v>
       </c>
       <c r="I53" s="7">
-        <v>745</v>
+        <v>659</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>372</v>
+        <v>181</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="M53" s="7">
         <v>3</v>
       </c>
       <c r="N53" s="7">
-        <v>2139</v>
+        <v>1857</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,46 +4470,46 @@
         <v>17</v>
       </c>
       <c r="D54" s="7">
-        <v>19305</v>
+        <v>16404</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>201</v>
+        <v>365</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="H54" s="7">
         <v>14</v>
       </c>
       <c r="I54" s="7">
-        <v>11567</v>
+        <v>9507</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>379</v>
+        <v>226</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="M54" s="7">
         <v>31</v>
       </c>
       <c r="N54" s="7">
-        <v>30872</v>
+        <v>25911</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,46 +4521,46 @@
         <v>85</v>
       </c>
       <c r="D55" s="7">
-        <v>84844</v>
+        <v>71705</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>382</v>
+        <v>233</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="H55" s="7">
         <v>87</v>
       </c>
       <c r="I55" s="7">
-        <v>80966</v>
+        <v>65559</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>385</v>
+        <v>88</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>386</v>
+        <v>89</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>287</v>
+        <v>374</v>
       </c>
       <c r="M55" s="7">
         <v>172</v>
       </c>
       <c r="N55" s="7">
-        <v>165810</v>
+        <v>137263</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,46 +4572,46 @@
         <v>19</v>
       </c>
       <c r="D56" s="7">
-        <v>17402</v>
+        <v>15105</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="H56" s="7">
         <v>15</v>
       </c>
       <c r="I56" s="7">
-        <v>10395</v>
+        <v>8843</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>19</v>
+        <v>381</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="M56" s="7">
         <v>34</v>
       </c>
       <c r="N56" s="7">
-        <v>27798</v>
+        <v>23948</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>185</v>
+        <v>69</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,46 +4623,46 @@
         <v>139</v>
       </c>
       <c r="D57" s="7">
-        <v>169972</v>
+        <v>143329</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H57" s="7">
         <v>225</v>
       </c>
       <c r="I57" s="7">
-        <v>196050</v>
+        <v>162308</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>400</v>
+        <v>234</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="M57" s="7">
         <v>364</v>
       </c>
       <c r="N57" s="7">
-        <v>366023</v>
+        <v>305637</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,46 +4674,46 @@
         <v>500</v>
       </c>
       <c r="D58" s="7">
-        <v>564559</v>
+        <v>679326</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="H58" s="7">
         <v>717</v>
       </c>
       <c r="I58" s="7">
-        <v>567074</v>
+        <v>469459</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="M58" s="7">
         <v>1217</v>
       </c>
       <c r="N58" s="7">
-        <v>1131633</v>
+        <v>1148785</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,7 +4725,7 @@
         <v>761</v>
       </c>
       <c r="D59" s="7">
-        <v>857476</v>
+        <v>927065</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>66</v>
@@ -4788,7 +4740,7 @@
         <v>1060</v>
       </c>
       <c r="I59" s="7">
-        <v>866798</v>
+        <v>716336</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>66</v>
@@ -4803,7 +4755,7 @@
         <v>1821</v>
       </c>
       <c r="N59" s="7">
-        <v>1724274</v>
+        <v>1643401</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>66</v>
@@ -4826,46 +4778,46 @@
         <v>23</v>
       </c>
       <c r="D60" s="7">
-        <v>32675</v>
+        <v>32120</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>415</v>
+        <v>242</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>13</v>
+        <v>403</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>182</v>
+        <v>404</v>
       </c>
       <c r="H60" s="7">
         <v>36</v>
       </c>
       <c r="I60" s="7">
-        <v>25504</v>
+        <v>23392</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>418</v>
+        <v>245</v>
       </c>
       <c r="M60" s="7">
         <v>59</v>
       </c>
       <c r="N60" s="7">
-        <v>58179</v>
+        <v>55512</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>23</v>
+        <v>407</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>420</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,46 +4829,46 @@
         <v>60</v>
       </c>
       <c r="D61" s="7">
-        <v>58672</v>
+        <v>55872</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>421</v>
+        <v>318</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="H61" s="7">
         <v>72</v>
       </c>
       <c r="I61" s="7">
-        <v>54670</v>
+        <v>50149</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>190</v>
+        <v>411</v>
       </c>
       <c r="M61" s="7">
         <v>132</v>
       </c>
       <c r="N61" s="7">
-        <v>113342</v>
+        <v>106021</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>426</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,46 +4880,46 @@
         <v>401</v>
       </c>
       <c r="D62" s="7">
-        <v>343232</v>
+        <v>337144</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="H62" s="7">
         <v>518</v>
       </c>
       <c r="I62" s="7">
-        <v>403307</v>
+        <v>451021</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="M62" s="7">
         <v>919</v>
       </c>
       <c r="N62" s="7">
-        <v>746540</v>
+        <v>788165</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>42</v>
+        <v>420</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>433</v>
+        <v>326</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,46 +4931,46 @@
         <v>147</v>
       </c>
       <c r="D63" s="7">
-        <v>165861</v>
+        <v>170309</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>435</v>
+        <v>274</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="H63" s="7">
         <v>193</v>
       </c>
       <c r="I63" s="7">
-        <v>141834</v>
+        <v>135013</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="M63" s="7">
         <v>340</v>
       </c>
       <c r="N63" s="7">
-        <v>307696</v>
+        <v>305322</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>441</v>
+        <v>313</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,46 +4982,46 @@
         <v>689</v>
       </c>
       <c r="D64" s="7">
-        <v>822934</v>
+        <v>811412</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="H64" s="7">
         <v>1166</v>
       </c>
       <c r="I64" s="7">
-        <v>898942</v>
+        <v>830589</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>447</v>
+        <v>296</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="M64" s="7">
         <v>1855</v>
       </c>
       <c r="N64" s="7">
-        <v>1721876</v>
+        <v>1642001</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,46 +5033,46 @@
         <v>2044</v>
       </c>
       <c r="D65" s="7">
-        <v>1939117</v>
+        <v>2028030</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="H65" s="7">
         <v>3362</v>
       </c>
       <c r="I65" s="7">
-        <v>2296641</v>
+        <v>2208544</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="M65" s="7">
         <v>5406</v>
       </c>
       <c r="N65" s="7">
-        <v>4235757</v>
+        <v>4236574</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,7 +5084,7 @@
         <v>3364</v>
       </c>
       <c r="D66" s="7">
-        <v>3362492</v>
+        <v>3434888</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>66</v>
@@ -5147,7 +5099,7 @@
         <v>5347</v>
       </c>
       <c r="I66" s="7">
-        <v>3820899</v>
+        <v>3698708</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>66</v>
@@ -5162,7 +5114,7 @@
         <v>8711</v>
       </c>
       <c r="N66" s="7">
-        <v>7183390</v>
+        <v>7133596</v>
       </c>
       <c r="O66" s="7" t="s">
         <v>66</v>
@@ -5176,7 +5128,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
